--- a/target/classes/companies/industrial/Celanese/CE_Celanese.xlsx
+++ b/target/classes/companies/industrial/Celanese/CE_Celanese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1F3590-E7E3-434C-88AA-A46C3B1A8673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -4662,6 +4662,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="874567888"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -19855,7 +19856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
@@ -19874,7 +19875,7 @@
   <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20114,7 +20115,7 @@
   <dimension ref="B3:L74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20165,7 +20166,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="13" t="n">
-        <f>AVERAGE(C28:L28)</f>
+        <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
         <v>0.1690947696443061</v>
       </c>
     </row>
@@ -21552,8 +21553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/target/classes/companies/industrial/Celanese/CE_Celanese.xlsx
+++ b/target/classes/companies/industrial/Celanese/CE_Celanese.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -18684,7 +18684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -20114,8 +20114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20192,7 +20192,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="67" t="n">
-        <v>0.029999999329447746</v>
+        <v>0.05000000074505806</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -21045,45 +21045,42 @@
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21" t="n">
-        <f>L25*(1+C46)</f>
-        <v>1911.679998755459</v>
-      </c>
-      <c r="D45" s="21" t="n">
-        <f>C45*(1+D46)</f>
-        <v>1969.0303974362469</v>
-      </c>
-      <c r="E45" s="21" t="n">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>2028.1013080390042</v>
+      <c r="C45" s="60" t="n">
+        <v>2801.0</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>3144.0</v>
+      </c>
+      <c r="E45" s="60" t="n">
+        <v>3405.0</v>
       </c>
       <c r="F45" s="21" t="n">
-        <f t="shared" si="8"/>
-        <v>2088.9443459202266</v>
+        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+        <v>3575.2500025369295</v>
       </c>
       <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>2151.612674897095</v>
+        <v>3754.0125053275524</v>
       </c>
       <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>2216.1610537012493</v>
+        <v>3941.713133390892</v>
       </c>
       <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>2282.6458838262406</v>
+        <v>4138.798792997247</v>
       </c>
       <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>2351.125258810399</v>
+        <v>4345.738735730766</v>
       </c>
       <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>2421.659014998165</v>
+        <v>4563.025675755144</v>
       </c>
       <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>2494.3087838242614</v>
+        <v>4791.176962942625</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -21092,43 +21089,43 @@
       </c>
       <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>0.029999999329447746</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>0.029999999329447746</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>0.029999999329447746</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>0.029999999329447746</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>0.029999999329447746</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>0.029999999329447746</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>0.029999999329447746</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>0.029999999329447746</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>0.029999999329447746</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>0.029999999329447746</v>
+        <v>0.05000000074505806</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21425,7 +21422,7 @@
       </c>
       <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>29358.01552741556</v>
+        <v>56392.15504706165</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
@@ -21434,7 +21431,7 @@
       </c>
       <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>14383.365015736234</v>
+        <v>27628.194055161384</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21447,7 +21444,7 @@
       </c>
       <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>26780.54195806727</v>
+        <v>40025.37099749242</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21457,7 +21454,7 @@
       </c>
       <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>246.88414142464737</v>
+        <v>368.98541371535526</v>
       </c>
     </row>
   </sheetData>
@@ -21553,7 +21550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
